--- a/forms/app/group_session.xlsx
+++ b/forms/app/group_session.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>type</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>../inputs/contact/place_id</t>
   </si>
   <si>
     <t>place_name</t>
@@ -1102,8 +1099,8 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="7" t="s">
-        <v>39</v>
+      <c r="K15" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1136,8 +1133,8 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="7" t="s">
-        <v>39</v>
+      <c r="K16" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1160,7 +1157,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1171,7 +1168,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1222,10 +1219,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
@@ -1255,25 +1252,25 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
@@ -1295,17 +1292,17 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1330,17 +1327,17 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1366,17 +1363,17 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -1405,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="9"/>
@@ -1465,16 +1462,16 @@
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1498,19 +1495,19 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1537,10 +1534,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1550,7 +1547,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -1570,13 +1567,13 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1604,19 +1601,19 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -1640,13 +1637,13 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -1677,7 +1674,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -28828,7 +28825,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -28885,22 +28882,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -28925,23 +28922,23 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="13">
         <f>NOW()</f>
-        <v>44746.46585</v>
+        <v>44748.70753</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
